--- a/data_year/zb/建筑业/总承包建筑业企业主要经济指标.xlsx
+++ b/data_year/zb/建筑业/总承包建筑业企业主要经济指标.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,304 +483,134 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125971632.7</v>
+        <v>370707247</v>
       </c>
       <c r="C2" t="n">
-        <v>56448442.2</v>
+        <v>115603478</v>
       </c>
       <c r="D2" t="n">
-        <v>74720380.59999999</v>
+        <v>193207763</v>
       </c>
       <c r="E2" t="n">
-        <v>2345.8604</v>
+        <v>3715.7019</v>
       </c>
       <c r="F2" t="n">
-        <v>1711.81752</v>
+        <v>5833.2626</v>
       </c>
       <c r="G2" t="n">
-        <v>32389</v>
+        <v>39430</v>
       </c>
       <c r="H2" t="n">
-        <v>298340853.9</v>
+        <v>851547282</v>
       </c>
       <c r="I2" t="n">
-        <v>116459.98</v>
+        <v>204094</v>
       </c>
       <c r="J2" t="n">
-        <v>41200398.4</v>
+        <v>172028794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142527857.7</v>
+        <v>466877273.9</v>
       </c>
       <c r="C3" t="n">
-        <v>64329128.3</v>
+        <v>134933746.5</v>
       </c>
       <c r="D3" t="n">
-        <v>89941215.2</v>
+        <v>233406073.9</v>
       </c>
       <c r="E3" t="n">
-        <v>2526.4838</v>
+        <v>3443.3675</v>
       </c>
       <c r="F3" t="n">
-        <v>2179.88819</v>
+        <v>6971.13086</v>
       </c>
       <c r="G3" t="n">
-        <v>33175</v>
+        <v>40480</v>
       </c>
       <c r="H3" t="n">
-        <v>360332770.4</v>
+        <v>1037639374.5</v>
       </c>
       <c r="I3" t="n">
-        <v>130441.9</v>
+        <v>233802.064612904</v>
       </c>
       <c r="J3" t="n">
-        <v>63534569.2</v>
+        <v>202422280</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174388361.6</v>
+        <v>556869587.4</v>
       </c>
       <c r="C4" t="n">
-        <v>75176851.40000001</v>
+        <v>160490360.7</v>
       </c>
       <c r="D4" t="n">
-        <v>107617422.5</v>
+        <v>279237492.4</v>
       </c>
       <c r="E4" t="n">
-        <v>2756.014</v>
+        <v>3827.8197</v>
       </c>
       <c r="F4" t="n">
-        <v>2774.62439</v>
+        <v>7984.5536</v>
       </c>
       <c r="G4" t="n">
-        <v>34071</v>
+        <v>43031</v>
       </c>
       <c r="H4" t="n">
-        <v>444193356.3</v>
+        <v>1224735707.9</v>
       </c>
       <c r="I4" t="n">
-        <v>146902.12</v>
+        <v>295904.15736723</v>
       </c>
       <c r="J4" t="n">
-        <v>87010720.8</v>
+        <v>228138267.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222305064.2</v>
+        <v>646077056.4</v>
       </c>
       <c r="C5" t="n">
-        <v>83276632.59999999</v>
+        <v>200479029.5</v>
       </c>
       <c r="D5" t="n">
-        <v>131634967.9</v>
+        <v>320010603</v>
       </c>
       <c r="E5" t="n">
-        <v>2923.671</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3783.73259</v>
-      </c>
+        <v>4035.7603</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>38212</v>
+        <v>46113</v>
       </c>
       <c r="H5" t="n">
-        <v>542268099.5</v>
+        <v>1424338341.9</v>
       </c>
       <c r="I5" t="n">
-        <v>161333.33</v>
+        <v>324864.65448542</v>
       </c>
       <c r="J5" t="n">
-        <v>105051434.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>288739525.7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>97220281.90000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>157403793.4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3263.3706</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4615.67294</v>
-      </c>
-      <c r="G6" t="n">
-        <v>38375</v>
-      </c>
-      <c r="H6" t="n">
-        <v>679645883.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>185716.32</v>
-      </c>
-      <c r="J6" t="n">
-        <v>136282282.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>370707247</v>
-      </c>
-      <c r="C7" t="n">
-        <v>115603478</v>
-      </c>
-      <c r="D7" t="n">
-        <v>193207763</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3715.7019</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5833.2626</v>
-      </c>
-      <c r="G7" t="n">
-        <v>39430</v>
-      </c>
-      <c r="H7" t="n">
-        <v>851547282</v>
-      </c>
-      <c r="I7" t="n">
-        <v>204094</v>
-      </c>
-      <c r="J7" t="n">
-        <v>172028794</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>466877273.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>134933746.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>233406073.9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3443.3675</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6971.13086</v>
-      </c>
-      <c r="G8" t="n">
-        <v>40480</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1037639374.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>233802.064612904</v>
-      </c>
-      <c r="J8" t="n">
-        <v>202422280</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>556869587.4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>160490360.7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>279237492.4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3827.8197</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7984.5536</v>
-      </c>
-      <c r="G9" t="n">
-        <v>43031</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1224735707.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>295904.15736723</v>
-      </c>
-      <c r="J9" t="n">
-        <v>228138267.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>646077056.4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>200479029.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>320010603</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4035.7603</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>46113</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1424338341.9</v>
-      </c>
-      <c r="I10" t="n">
-        <v>324864.65448542</v>
-      </c>
-      <c r="J10" t="n">
         <v>257771653</v>
       </c>
     </row>
